--- a/Expedia Templates/BMC/BMC1/EXPORT CXL Cloud Export.xlsx
+++ b/Expedia Templates/BMC/BMC1/EXPORT CXL Cloud Export.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB72F6DB-6EF4-4C57-9F18-8D641AA8D17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4827D0B0-795D-4243-A124-55785A792927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="5040" windowWidth="25755" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16100" yWindow="8380" windowWidth="25760" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,27 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Hotel ID</t>
-  </si>
-  <si>
-    <t>Exclude Past Date Exception</t>
-  </si>
-  <si>
-    <t>Exclude Inactive Rate Plan</t>
-  </si>
-  <si>
-    <t>Exclude Past Non-refundable Dates</t>
-  </si>
-  <si>
-    <t>Exclude Inactive Cancellation Policies</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -389,53 +371,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
